--- a/Butter-module6FINAL.xlsx
+++ b/Butter-module6FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F88804-1D3E-4FEB-8B6D-72C65E145D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D42D2D5-1398-48C2-B8E2-1B637E798028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{827F9DA4-EAA2-4954-AF30-C4EA8A16835E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">butter_Module06_Locations!$R$3</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">butter_Module06_Locations!$Z$4</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
@@ -50,7 +50,20 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -147,7 +160,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -466,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -608,6 +621,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -617,9 +645,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -632,9 +658,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -647,9 +671,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -698,8 +720,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -709,22 +742,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1103,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A01D8F6-6AD4-401B-B4C8-1991DD6AFF47}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1186,17 +1209,17 @@
       <c r="H3">
         <v>48</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7">
         <f>SUMPRODUCT(J7:J19,O7:O19)</f>
         <v>63364</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -1244,7 +1267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1266,34 +1289,34 @@
       <c r="H6">
         <v>30</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="8" t="s">
+      <c r="R6" s="9"/>
+      <c r="S6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1319,45 +1342,45 @@
       <c r="H7">
         <v>27</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>300</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="4" t="str">
         <f>VLOOKUP(K7,$Q$7:$R$15,2,0)</f>
         <v>Bubble Pop Borough</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>7</v>
       </c>
-      <c r="N7" t="str">
+      <c r="N7" s="4" t="str">
         <f>_xlfn.XLOOKUP(M7,$Q$7:$Q$15,$R$7:$R$15)</f>
         <v>Turkish Delight Tundra</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="5">
         <v>42</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <f>SUMIF($M$7:$M$19,Q7,$J$7:$J$19)</f>
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <f>SUMIF($K$7:$K$19,Q7,$J$7:$J$19)</f>
         <v>300</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <f>S7-T7</f>
         <v>-300</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>-300</v>
       </c>
     </row>
@@ -1383,45 +1406,45 @@
       <c r="H8">
         <v>33</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>337</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="4" t="str">
         <f t="shared" ref="L8:L19" si="0">VLOOKUP(K8,$Q$7:$R$15,2,0)</f>
         <v>Honeysuckle Hollow</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>5</v>
       </c>
-      <c r="N8" t="str">
+      <c r="N8" s="4" t="str">
         <f t="shared" ref="N8:N19" si="1">_xlfn.XLOOKUP(M8,$Q$7:$Q$15,$R$7:$R$15)</f>
         <v>Smores Summit</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="5">
         <v>48</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>1</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <f t="shared" ref="S8:S15" si="2">SUMIF($M$7:$M$19,Q8,$J$7:$J$19)</f>
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <f t="shared" ref="T8:T15" si="3">SUMIF($K$7:$K$19,Q8,$J$7:$J$19)</f>
         <v>337</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <f t="shared" ref="U8:U15" si="4">S8-T8</f>
         <v>-337</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>-337</v>
       </c>
     </row>
@@ -1447,45 +1470,45 @@
       <c r="H9">
         <v>41</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>261</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Mallow Melt Mountains</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>8</v>
       </c>
-      <c r="N9" t="str">
+      <c r="N9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>White Chocolate Wasteland</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="5">
         <v>27</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>2</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="4">
         <f t="shared" si="3"/>
         <v>261</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="4">
         <f t="shared" si="4"/>
         <v>-261</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="4">
         <v>-261</v>
       </c>
     </row>
@@ -1511,45 +1534,45 @@
       <c r="H10">
         <v>37</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>3</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Marshmallow Meadows</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>4</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Mochi Metropolis</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="5">
         <v>44</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>3</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="4">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="4">
         <v>192</v>
       </c>
     </row>
@@ -1563,45 +1586,45 @@
       <c r="H11">
         <v>45</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>3</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Marshmallow Meadows</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>5</v>
       </c>
-      <c r="N11" t="str">
+      <c r="N11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Smores Summit</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="5">
         <v>30</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="4">
         <v>4</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="4">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="4">
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="4">
         <v>157</v>
       </c>
     </row>
@@ -1615,45 +1638,45 @@
       <c r="H12">
         <v>32</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>3</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Marshmallow Meadows</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>7</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Turkish Delight Tundra</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="5">
         <v>27</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>5</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
         <f t="shared" si="2"/>
         <v>507</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="4">
         <f t="shared" si="3"/>
         <v>279</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="4">
         <f t="shared" si="4"/>
         <v>228</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>228</v>
       </c>
     </row>
@@ -1667,45 +1690,45 @@
       <c r="H13">
         <v>40</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>279</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>5</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Smores Summit</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>7</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Turkish Delight Tundra</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="5">
         <v>33</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>6</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="4">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="4">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="4">
         <v>87</v>
       </c>
     </row>
@@ -1719,176 +1742,176 @@
       <c r="H14">
         <v>34</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>5</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Smores Summit</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>8</v>
       </c>
-      <c r="N14" t="str">
+      <c r="N14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>White Chocolate Wasteland</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="5">
         <v>41</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
         <v>7</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
         <f t="shared" si="2"/>
         <v>579</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="4">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="4">
         <f t="shared" si="4"/>
         <v>245</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="4">
         <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J15">
+      <c r="J15" s="4">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>6</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Snickerdoodle Slopes</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>3</v>
       </c>
-      <c r="N15" t="str">
+      <c r="N15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Marshmallow Meadows</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="5">
         <v>37</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="4">
         <v>8</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="4">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="4">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="4">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="J16">
+      <c r="J16" s="4">
         <v>90</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>7</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Turkish Delight Tundra</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <v>3</v>
       </c>
-      <c r="N16" t="str">
+      <c r="N16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Marshmallow Meadows</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="5">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="10:15" x14ac:dyDescent="0.35">
-      <c r="J17">
+      <c r="J17" s="4">
         <v>157</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>7</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Turkish Delight Tundra</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>4</v>
       </c>
-      <c r="N17" t="str">
+      <c r="N17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Mochi Metropolis</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:15" x14ac:dyDescent="0.35">
-      <c r="J18">
+      <c r="J18" s="4">
         <v>87</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>7</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Turkish Delight Tundra</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>6</v>
       </c>
-      <c r="N18" t="str">
+      <c r="N18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Snickerdoodle Slopes</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="10:15" x14ac:dyDescent="0.35">
-      <c r="J19">
+      <c r="J19" s="4">
         <v>170</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>8</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>White Chocolate Wasteland</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>5</v>
       </c>
-      <c r="N19" t="str">
+      <c r="N19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Smores Summit</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="5">
         <v>34</v>
       </c>
     </row>
